--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoc\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1365b8fb67532b17/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6456A74A-05F1-42BD-94E0-5B4357849F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BAF62CF6-433D-443F-9B2B-7C26A4F21A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE9A9819-627F-43C9-9D98-3B4D23956F8E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="320">
   <si>
     <t>Livro</t>
   </si>
@@ -864,9 +864,6 @@
     <t>Dog_2.mp4</t>
   </si>
   <si>
-    <t>Dog_3.mp4</t>
-  </si>
-  <si>
     <t>Dog_4.mp4</t>
   </si>
   <si>
@@ -966,9 +963,6 @@
   </si>
   <si>
     <t>"None of them"</t>
-  </si>
-  <si>
-    <t>"Just fooling</t>
   </si>
   <si>
     <t>"sometimes need a lot of help"</t>
@@ -1392,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCE301-2CC1-40FA-920E-00B3C30E61DE}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2069,7 +2063,7 @@
         <v>82</v>
       </c>
       <c r="G29" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2092,7 +2086,7 @@
         <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2115,7 +2109,7 @@
         <v>253</v>
       </c>
       <c r="G31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2138,7 +2132,7 @@
         <v>254</v>
       </c>
       <c r="G32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2161,7 +2155,7 @@
         <v>248</v>
       </c>
       <c r="G33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2184,7 +2178,7 @@
         <v>255</v>
       </c>
       <c r="G34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2207,7 +2201,7 @@
         <v>256</v>
       </c>
       <c r="G35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2230,7 +2224,7 @@
         <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2253,7 +2247,7 @@
         <v>249</v>
       </c>
       <c r="G37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2276,7 +2270,7 @@
         <v>259</v>
       </c>
       <c r="G38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2299,7 +2293,7 @@
         <v>250</v>
       </c>
       <c r="G39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2322,7 +2316,7 @@
         <v>260</v>
       </c>
       <c r="G40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2345,7 +2339,7 @@
         <v>261</v>
       </c>
       <c r="G41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2368,7 +2362,7 @@
         <v>262</v>
       </c>
       <c r="G42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2391,7 +2385,7 @@
         <v>263</v>
       </c>
       <c r="G43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2414,7 +2408,7 @@
         <v>251</v>
       </c>
       <c r="G44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2437,7 +2431,7 @@
         <v>264</v>
       </c>
       <c r="G45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2460,7 +2454,7 @@
         <v>257</v>
       </c>
       <c r="G46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2483,7 +2477,7 @@
         <v>265</v>
       </c>
       <c r="G47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2563,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>184</v>
@@ -2572,10 +2566,10 @@
         <v>60</v>
       </c>
       <c r="F51" t="s">
+        <v>287</v>
+      </c>
+      <c r="G51" t="s">
         <v>288</v>
-      </c>
-      <c r="G51" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -2618,10 +2612,10 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2641,10 +2635,10 @@
         <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2664,10 +2658,10 @@
         <v>64</v>
       </c>
       <c r="F55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2687,10 +2681,10 @@
         <v>65</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2710,10 +2704,10 @@
         <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2733,10 +2727,10 @@
         <v>67</v>
       </c>
       <c r="F58" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2756,10 +2750,10 @@
         <v>68</v>
       </c>
       <c r="F59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2779,10 +2773,10 @@
         <v>69</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2802,10 +2796,10 @@
         <v>70</v>
       </c>
       <c r="F61" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2825,10 +2819,10 @@
         <v>71</v>
       </c>
       <c r="F62" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -2848,10 +2842,10 @@
         <v>72</v>
       </c>
       <c r="F63" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2871,10 +2865,10 @@
         <v>73</v>
       </c>
       <c r="F64" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2894,10 +2888,10 @@
         <v>74</v>
       </c>
       <c r="F65" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2917,10 +2911,10 @@
         <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2940,10 +2934,10 @@
         <v>76</v>
       </c>
       <c r="F67" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2986,15 +2980,15 @@
         <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="G70" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1365b8fb67532b17/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoc\OneDrive\Área de Trabalho\HandSignLanguage\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BAF62CF6-433D-443F-9B2B-7C26A4F21A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE9A9819-627F-43C9-9D98-3B4D23956F8E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F41CE1D-2A24-409F-8869-A944B4D9E0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
+    <workbookView xWindow="-9252" yWindow="1896" windowWidth="17280" windowHeight="9420" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="331">
   <si>
     <t>Livro</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Imagem</t>
   </si>
   <si>
-    <t>Palavras_Video</t>
-  </si>
-  <si>
     <t>Video</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
   </si>
   <si>
     <t>Doing my Chores_20.jpg</t>
-  </si>
-  <si>
-    <t>"A Do on a Log"</t>
   </si>
   <si>
     <t>"Doing my Chores"</t>
@@ -663,12 +657,6 @@
     <t>"Será que vamos sempre pronto? Eu sei que se minhas tarefas não fossem feitas, não seríamos capazes de fazer isso."</t>
   </si>
   <si>
-    <t>"Service Dog"</t>
-  </si>
-  <si>
-    <t>"good family friend"</t>
-  </si>
-  <si>
     <t>"Hi, I am Abe"</t>
   </si>
   <si>
@@ -730,18 +718,6 @@
   </si>
   <si>
     <t>"Dogs are smart, well trained"</t>
-  </si>
-  <si>
-    <t>Abe_1.mp4</t>
-  </si>
-  <si>
-    <t>Abe_2.mp4</t>
-  </si>
-  <si>
-    <t>Abe_4.mp4</t>
-  </si>
-  <si>
-    <t>Abe_5.mp4</t>
   </si>
   <si>
     <t>Abe_6.mp4</t>
@@ -1020,6 +996,63 @@
   </si>
   <si>
     <t>"They need to be done"</t>
+  </si>
+  <si>
+    <t>Palavras_Video_EN</t>
+  </si>
+  <si>
+    <t>Palavras_Video_PT</t>
+  </si>
+  <si>
+    <t>"bom amigo da familía"</t>
+  </si>
+  <si>
+    <t>"Oi, eu sou Abe"</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"eu sabia que era algo especial"</t>
+  </si>
+  <si>
+    <t>"fui mandada para a escola"</t>
+  </si>
+  <si>
+    <t>" Ser amigo deles e ajudá-los"</t>
+  </si>
+  <si>
+    <t>"aprender a avisar as pessoas"</t>
+  </si>
+  <si>
+    <t>"Meus outros irmãos e irmãs"</t>
+  </si>
+  <si>
+    <t>"Tive de aprender muitas coisas como tu"</t>
+  </si>
+  <si>
+    <t>"olhar antes de atravessar a rua"</t>
+  </si>
+  <si>
+    <t>"Service"</t>
+  </si>
+  <si>
+    <t>"Abe";"the";"Service";"Dog"</t>
+  </si>
+  <si>
+    <t>"good";"family";"friend"</t>
+  </si>
+  <si>
+    <t>Abe.mp4;the.mp4;Service.mp4;Dog.mp4</t>
+  </si>
+  <si>
+    <t>good.mp4;family.mp4;friend.mp4</t>
+  </si>
+  <si>
+    <t>Hi.mp4;I.mp4;am.mp4;Abe.mp4;and.mp4;am.mp4;a.mp4;Service.mp4;Dog.mp4</t>
+  </si>
+  <si>
+    <t>When.mp4,I.mp4;knew.mp4;it.mp4;was.mp4;something.mp4;special.mp4</t>
   </si>
 </sst>
 </file>
@@ -1386,19 +1419,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCE301-2CC1-40FA-920E-00B3C30E61DE}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="112.6640625" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="100.77734375" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="47.88671875" customWidth="1"/>
-    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="7" max="7" width="52.21875" customWidth="1"/>
+    <col min="8" max="8" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1418,1572 +1452,1611 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="H1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>325</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>327</v>
+      </c>
+      <c r="H2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>326</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
+        <v>328</v>
+      </c>
+      <c r="H3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>329</v>
+      </c>
+      <c r="H5" t="s">
+        <v>315</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>330</v>
+      </c>
+      <c r="H6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>220</v>
+      </c>
+      <c r="H7" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>221</v>
+      </c>
+      <c r="H8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>230</v>
+        <v>222</v>
+      </c>
+      <c r="H9" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G10" t="s">
-        <v>231</v>
+        <v>223</v>
+      </c>
+      <c r="H10" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
+        <v>224</v>
+      </c>
+      <c r="H11" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G12" t="s">
-        <v>233</v>
+        <v>225</v>
+      </c>
+      <c r="H12" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>234</v>
+        <v>226</v>
+      </c>
+      <c r="H13" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G14" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G16" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G17" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G37" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G38" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G39" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G40" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G41" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G42" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G43" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G45" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46">
         <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G46" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G47" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G49" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="G50" t="s">
         <v>80</v>
-      </c>
-      <c r="E50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G51" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
-      <c r="C53" t="s">
-        <v>125</v>
+      <c r="C53" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G53" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G54" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F55" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G55" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G56" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F57" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G57" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G58" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F59" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G59" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F61" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62">
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68">
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69">
         <v>20</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoc\OneDrive\Área de Trabalho\HandSignLanguage\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F41CE1D-2A24-409F-8869-A944B4D9E0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8314DF-28EA-423B-A55D-797FC1B92720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9252" yWindow="1896" windowWidth="17280" windowHeight="9420" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
+    <workbookView xWindow="2448" yWindow="684" windowWidth="17280" windowHeight="9420" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCE301-2CC1-40FA-920E-00B3C30E61DE}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2675,7 +2675,7 @@
       <c r="B53">
         <v>4</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D53" s="1" t="s">

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoc\OneDrive\Área de Trabalho\HandSignLanguage\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8314DF-28EA-423B-A55D-797FC1B92720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B4F84F-047F-4CF5-8962-148D79D3EF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="684" windowWidth="17280" windowHeight="9420" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCE301-2CC1-40FA-920E-00B3C30E61DE}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2468,7 +2468,7 @@
       <c r="B44">
         <v>18</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D44" s="1" t="s">

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoc\OneDrive\Área de Trabalho\HandSignLanguage\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B4F84F-047F-4CF5-8962-148D79D3EF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D1DA90-78C9-496F-A326-D5CDF4DF7CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="199">
   <si>
     <t>Livro</t>
   </si>
@@ -50,9 +51,6 @@
   </si>
   <si>
     <t>Imagem</t>
-  </si>
-  <si>
-    <t>Video</t>
   </si>
   <si>
     <t>Abe The Service Dog</t>
@@ -657,402 +655,9 @@
     <t>"Será que vamos sempre pronto? Eu sei que se minhas tarefas não fossem feitas, não seríamos capazes de fazer isso."</t>
   </si>
   <si>
-    <t>"Hi, I am Abe"</t>
-  </si>
-  <si>
-    <t>"i knew it was something special"</t>
-  </si>
-  <si>
-    <t>"I was sent away to school"</t>
-  </si>
-  <si>
-    <t>"learn many things just like you"</t>
-  </si>
-  <si>
-    <t>"get back, even in strange areas"</t>
-  </si>
-  <si>
-    <t>"be their friend and help them"</t>
-  </si>
-  <si>
-    <t>"learn how to warn people"</t>
-  </si>
-  <si>
-    <t>"My other brothers and sisters"</t>
-  </si>
-  <si>
-    <t>"look before crossing the street"</t>
-  </si>
-  <si>
-    <t>"became very good friends"</t>
-  </si>
-  <si>
-    <t>"guide a person"</t>
-  </si>
-  <si>
-    <t>"behave in a restaurant"</t>
-  </si>
-  <si>
-    <t>"plain old playful dog"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"We were both excited" </t>
-  </si>
-  <si>
-    <t>"I was off to a new house"</t>
-  </si>
-  <si>
-    <t>"shared many years together"</t>
-  </si>
-  <si>
-    <t>"she was happy or unhappy"</t>
-  </si>
-  <si>
-    <t>" make things better for me"</t>
-  </si>
-  <si>
-    <t>"can´t help my friend any more"</t>
-  </si>
-  <si>
-    <t>"meet him tomorrow"</t>
-  </si>
-  <si>
-    <t>"Dogs are smart, well trained"</t>
-  </si>
-  <si>
-    <t>Abe_6.mp4</t>
-  </si>
-  <si>
-    <t>Abe_7.mp4</t>
-  </si>
-  <si>
-    <t>Abe_8.mp4</t>
-  </si>
-  <si>
-    <t>Abe_9.mp4</t>
-  </si>
-  <si>
-    <t>Abe_10.mp4</t>
-  </si>
-  <si>
-    <t>Abe_11.mp4</t>
-  </si>
-  <si>
-    <t>Abe_12.mp4</t>
-  </si>
-  <si>
-    <t>Abe_13.mp4</t>
-  </si>
-  <si>
-    <t>Abe_14.mp4</t>
-  </si>
-  <si>
-    <t>Abe_15.mp4</t>
-  </si>
-  <si>
-    <t>Abe_16.mp4</t>
-  </si>
-  <si>
-    <t>Abe_17.mp4</t>
-  </si>
-  <si>
-    <t>Abe_18.mp4</t>
-  </si>
-  <si>
-    <t>Abe_19.mp4</t>
-  </si>
-  <si>
-    <t>Abe_20.mp4</t>
-  </si>
-  <si>
-    <t>Abe_21.mp4</t>
-  </si>
-  <si>
-    <t>Abe_22.mp4</t>
-  </si>
-  <si>
-    <t>Abe_23.mp4</t>
-  </si>
-  <si>
-    <t>Abe_25.mp4</t>
-  </si>
-  <si>
-    <t>"fun story for the young reader"</t>
-  </si>
-  <si>
-    <t>"frightening flea"</t>
-  </si>
-  <si>
-    <t>"perplexed"</t>
-  </si>
-  <si>
-    <t>"what happened next"</t>
-  </si>
-  <si>
-    <t>"where they went"</t>
-  </si>
-  <si>
-    <t>"On a beach by a tree"</t>
-  </si>
-  <si>
-    <t>"shouted a hog"</t>
-  </si>
-  <si>
-    <t>"Well how can that be"</t>
-  </si>
-  <si>
-    <t>"dog be saving a flea"</t>
-  </si>
-  <si>
-    <t>"branch of a tree"</t>
-  </si>
-  <si>
-    <t>"riding that log"</t>
-  </si>
-  <si>
-    <t>"saw happen next"</t>
-  </si>
-  <si>
-    <t>"rope and up came a boat"</t>
-  </si>
-  <si>
-    <t>"ran from the dog"</t>
-  </si>
-  <si>
-    <t>"got into the boat"</t>
-  </si>
-  <si>
-    <t>"Once on the shore"</t>
-  </si>
-  <si>
-    <t>"left hand"</t>
-  </si>
-  <si>
-    <t>"new home"</t>
-  </si>
-  <si>
-    <t>"for me"</t>
-  </si>
-  <si>
-    <t>Dog_1.mp4</t>
-  </si>
-  <si>
-    <t>Dog_2.mp4</t>
-  </si>
-  <si>
-    <t>Dog_4.mp4</t>
-  </si>
-  <si>
-    <t>Dog_5.mp4</t>
-  </si>
-  <si>
-    <t>Dog_6.mp4</t>
-  </si>
-  <si>
-    <t>Dog_7.mp4</t>
-  </si>
-  <si>
-    <t>Dog_8.mp4</t>
-  </si>
-  <si>
-    <t>Dog_9.mp4</t>
-  </si>
-  <si>
-    <t>Dog_10.mp4</t>
-  </si>
-  <si>
-    <t>Dog_11.mp4</t>
-  </si>
-  <si>
-    <t>Dog_12.mp4</t>
-  </si>
-  <si>
-    <t>Dog_13.mp4</t>
-  </si>
-  <si>
-    <t>Dog_14.mp4</t>
-  </si>
-  <si>
-    <t>Dog_15.mp4</t>
-  </si>
-  <si>
-    <t>Dog_16.mp4</t>
-  </si>
-  <si>
-    <t>Dog_18.mp4</t>
-  </si>
-  <si>
-    <t>Dog_19.mp4</t>
-  </si>
-  <si>
-    <t>Dog_20.mp4</t>
-  </si>
-  <si>
-    <t>Dog_21.mp4</t>
-  </si>
-  <si>
-    <t>Dog_17mp4</t>
-  </si>
-  <si>
     <t>"Doing my Chores. They need to be done and depending on your outlook
 can be accomplished easily. Doing My Chores is intended to impart a message of
 importance in accomplishing one's given tasks."</t>
-  </si>
-  <si>
-    <t>"they need to be done"</t>
-  </si>
-  <si>
-    <t>Doing_2.mp4</t>
-  </si>
-  <si>
-    <t>Doing_4.mp4</t>
-  </si>
-  <si>
-    <t>Doing_5.mp4</t>
-  </si>
-  <si>
-    <t>Doing_6.mp4</t>
-  </si>
-  <si>
-    <t>Doing_7.mp4</t>
-  </si>
-  <si>
-    <t>Doing_8.mp4</t>
-  </si>
-  <si>
-    <t>Doing_9.mp4</t>
-  </si>
-  <si>
-    <t>Doing_10.mp4</t>
-  </si>
-  <si>
-    <t>"I like doing"</t>
-  </si>
-  <si>
-    <t>"maybe not all of them"</t>
-  </si>
-  <si>
-    <t>"lot of them"</t>
-  </si>
-  <si>
-    <t>"few of them"</t>
-  </si>
-  <si>
-    <t>"None of them"</t>
-  </si>
-  <si>
-    <t>"sometimes need a lot of help"</t>
-  </si>
-  <si>
-    <t>"Great Job"</t>
-  </si>
-  <si>
-    <t>Doing_11.mp4</t>
-  </si>
-  <si>
-    <t>Doing_12.mp4</t>
-  </si>
-  <si>
-    <t>Doing_13.mp4</t>
-  </si>
-  <si>
-    <t>Doing_14.mp4</t>
-  </si>
-  <si>
-    <t>Doing_15.mp4</t>
-  </si>
-  <si>
-    <t>Doing_16.mp4</t>
-  </si>
-  <si>
-    <t>"Sometimes i get bored"</t>
-  </si>
-  <si>
-    <t>"silly game"</t>
-  </si>
-  <si>
-    <t>Doing_17.mp4</t>
-  </si>
-  <si>
-    <t>"Like yesterday"</t>
-  </si>
-  <si>
-    <t>"Just fooling"</t>
-  </si>
-  <si>
-    <t>Doing_18.mp4</t>
-  </si>
-  <si>
-    <t>Doing_20.mp4</t>
-  </si>
-  <si>
-    <t>"we go to the park"</t>
-  </si>
-  <si>
-    <t>"Will we ever get done"</t>
-  </si>
-  <si>
-    <t>"important and have some fun"</t>
-  </si>
-  <si>
-    <t>"They need to be done"</t>
-  </si>
-  <si>
-    <t>Palavras_Video_EN</t>
-  </si>
-  <si>
-    <t>Palavras_Video_PT</t>
-  </si>
-  <si>
-    <t>"bom amigo da familía"</t>
-  </si>
-  <si>
-    <t>"Oi, eu sou Abe"</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>"eu sabia que era algo especial"</t>
-  </si>
-  <si>
-    <t>"fui mandada para a escola"</t>
-  </si>
-  <si>
-    <t>" Ser amigo deles e ajudá-los"</t>
-  </si>
-  <si>
-    <t>"aprender a avisar as pessoas"</t>
-  </si>
-  <si>
-    <t>"Meus outros irmãos e irmãs"</t>
-  </si>
-  <si>
-    <t>"Tive de aprender muitas coisas como tu"</t>
-  </si>
-  <si>
-    <t>"olhar antes de atravessar a rua"</t>
-  </si>
-  <si>
-    <t>"Service"</t>
-  </si>
-  <si>
-    <t>"Abe";"the";"Service";"Dog"</t>
-  </si>
-  <si>
-    <t>"good";"family";"friend"</t>
-  </si>
-  <si>
-    <t>Abe.mp4;the.mp4;Service.mp4;Dog.mp4</t>
-  </si>
-  <si>
-    <t>good.mp4;family.mp4;friend.mp4</t>
-  </si>
-  <si>
-    <t>Hi.mp4;I.mp4;am.mp4;Abe.mp4;and.mp4;am.mp4;a.mp4;Service.mp4;Dog.mp4</t>
-  </si>
-  <si>
-    <t>When.mp4,I.mp4;knew.mp4;it.mp4;was.mp4;something.mp4;special.mp4</t>
   </si>
 </sst>
 </file>
@@ -1419,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCE301-2CC1-40FA-920E-00B3C30E61DE}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,1613 +1056,1176 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H3" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" t="s">
-        <v>329</v>
-      </c>
-      <c r="H5" t="s">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" t="s">
-        <v>330</v>
-      </c>
-      <c r="H6" t="s">
-        <v>317</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" t="s">
-        <v>318</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" t="s">
-        <v>319</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H9" t="s">
-        <v>320</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" t="s">
-        <v>321</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H11" t="s">
-        <v>322</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" t="s">
-        <v>225</v>
-      </c>
-      <c r="H12" t="s">
-        <v>323</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H13" t="s">
-        <v>316</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G14" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>218</v>
-      </c>
-      <c r="G24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>219</v>
-      </c>
-      <c r="G26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>38</v>
       </c>
-      <c r="F30" t="s">
-        <v>244</v>
-      </c>
-      <c r="G30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>39</v>
-      </c>
-      <c r="F31" t="s">
-        <v>245</v>
-      </c>
-      <c r="G31" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" t="s">
-        <v>246</v>
-      </c>
-      <c r="G32" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" t="s">
-        <v>240</v>
-      </c>
-      <c r="G33" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" t="s">
-        <v>247</v>
-      </c>
-      <c r="G34" t="s">
-        <v>264</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" t="s">
-        <v>250</v>
-      </c>
-      <c r="G36" t="s">
-        <v>266</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" t="s">
-        <v>241</v>
-      </c>
-      <c r="G37" t="s">
-        <v>267</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G38" t="s">
-        <v>268</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" t="s">
-        <v>242</v>
-      </c>
-      <c r="G39" t="s">
-        <v>269</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" t="s">
-        <v>252</v>
-      </c>
-      <c r="G40" t="s">
-        <v>270</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" t="s">
-        <v>253</v>
-      </c>
-      <c r="G41" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" t="s">
-        <v>254</v>
-      </c>
-      <c r="G42" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" t="s">
-        <v>255</v>
-      </c>
-      <c r="G43" t="s">
-        <v>277</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>18</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>117</v>
+      <c r="C44" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" t="s">
-        <v>243</v>
-      </c>
-      <c r="G44" t="s">
-        <v>273</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" t="s">
-        <v>256</v>
-      </c>
-      <c r="G45" t="s">
-        <v>274</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" t="s">
-        <v>249</v>
-      </c>
-      <c r="G46" t="s">
-        <v>275</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" t="s">
-        <v>257</v>
-      </c>
-      <c r="G47" t="s">
-        <v>276</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" t="s">
-        <v>258</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" t="s">
-        <v>279</v>
-      </c>
-      <c r="G51" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" t="s">
-        <v>288</v>
-      </c>
-      <c r="G53" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" t="s">
-        <v>289</v>
-      </c>
-      <c r="G54" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" t="s">
-        <v>290</v>
-      </c>
-      <c r="G55" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
-      </c>
-      <c r="F56" t="s">
-        <v>291</v>
-      </c>
-      <c r="G56" t="s">
-        <v>284</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" t="s">
-        <v>292</v>
-      </c>
-      <c r="G57" t="s">
-        <v>285</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" t="s">
-        <v>305</v>
-      </c>
-      <c r="G58" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" t="s">
-        <v>293</v>
-      </c>
-      <c r="G59" t="s">
-        <v>287</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60">
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" t="s">
-        <v>294</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>295</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" t="s">
-        <v>301</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62">
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E62" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" t="s">
-        <v>302</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>297</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63">
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
-      </c>
-      <c r="F63" t="s">
-        <v>304</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>298</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
-      </c>
-      <c r="F64" t="s">
-        <v>305</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>299</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
-      </c>
-      <c r="F65" t="s">
-        <v>308</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>300</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66">
         <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" t="s">
-        <v>309</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>303</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67">
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" t="s">
-        <v>310</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68">
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
-      </c>
-      <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69">
         <v>20</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" t="s">
-        <v>311</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>307</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D70" s="2"/>
@@ -3067,4 +2235,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147A4767-0A1C-436F-99E7-A653733DE7CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoc\OneDrive\Área de Trabalho\HandSignLanguage\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1365b8fb67532b17/Área de Trabalho/HandSignLanguage/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D1DA90-78C9-496F-A326-D5CDF4DF7CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="13_ncr:1_{67D1DA90-78C9-496F-A326-D5CDF4DF7CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC7363B-6599-4D4A-8BC7-C2C9E46ECC39}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="454">
   <si>
     <t>Livro</t>
   </si>
@@ -658,6 +658,771 @@
     <t>"Doing my Chores. They need to be done and depending on your outlook
 can be accomplished easily. Doing My Chores is intended to impart a message of
 importance in accomplishing one's given tasks."</t>
+  </si>
+  <si>
+    <t>Palavras_EN</t>
+  </si>
+  <si>
+    <t>Palavras_PT</t>
+  </si>
+  <si>
+    <t>"Abe"</t>
+  </si>
+  <si>
+    <t>"Dog"</t>
+  </si>
+  <si>
+    <t>"Service"</t>
+  </si>
+  <si>
+    <t>"The"</t>
+  </si>
+  <si>
+    <t>"a"</t>
+  </si>
+  <si>
+    <t>"am"</t>
+  </si>
+  <si>
+    <t>"and"</t>
+  </si>
+  <si>
+    <t>"Hi"</t>
+  </si>
+  <si>
+    <t>"I"</t>
+  </si>
+  <si>
+    <t>"away"</t>
+  </si>
+  <si>
+    <t>"got"</t>
+  </si>
+  <si>
+    <t>"little"</t>
+  </si>
+  <si>
+    <t>"older"</t>
+  </si>
+  <si>
+    <t>"school"</t>
+  </si>
+  <si>
+    <t>"sent"</t>
+  </si>
+  <si>
+    <t>"to"</t>
+  </si>
+  <si>
+    <t>"was"</t>
+  </si>
+  <si>
+    <t>"when"</t>
+  </si>
+  <si>
+    <t>"Doing"</t>
+  </si>
+  <si>
+    <t>"my"</t>
+  </si>
+  <si>
+    <t>"like"</t>
+  </si>
+  <si>
+    <t>"all"</t>
+  </si>
+  <si>
+    <t>"but"</t>
+  </si>
+  <si>
+    <t>"maybe"</t>
+  </si>
+  <si>
+    <t>"most"</t>
+  </si>
+  <si>
+    <t>"not"</t>
+  </si>
+  <si>
+    <t>"them"</t>
+  </si>
+  <si>
+    <t>"well"</t>
+  </si>
+  <si>
+    <t>"Hmm"</t>
+  </si>
+  <si>
+    <t>"lot"</t>
+  </si>
+  <si>
+    <t>"of"</t>
+  </si>
+  <si>
+    <t>"few"</t>
+  </si>
+  <si>
+    <t>"Okay"</t>
+  </si>
+  <si>
+    <t>"None"</t>
+  </si>
+  <si>
+    <t>"do"</t>
+  </si>
+  <si>
+    <t>"fooling"</t>
+  </si>
+  <si>
+    <t>"Just"</t>
+  </si>
+  <si>
+    <t>"really"</t>
+  </si>
+  <si>
+    <t>"bored"</t>
+  </si>
+  <si>
+    <t>"even"</t>
+  </si>
+  <si>
+    <t>"get"</t>
+  </si>
+  <si>
+    <t>"if"</t>
+  </si>
+  <si>
+    <t>"so"</t>
+  </si>
+  <si>
+    <t>"some"</t>
+  </si>
+  <si>
+    <t>"Sometimes"</t>
+  </si>
+  <si>
+    <t>"they"</t>
+  </si>
+  <si>
+    <t>"belongs"</t>
+  </si>
+  <si>
+    <t>"dresser"</t>
+  </si>
+  <si>
+    <t>"in"</t>
+  </si>
+  <si>
+    <t>"it"</t>
+  </si>
+  <si>
+    <t>"where"</t>
+  </si>
+  <si>
+    <t>"be"</t>
+  </si>
+  <si>
+    <t>"done"</t>
+  </si>
+  <si>
+    <t>"fun"</t>
+  </si>
+  <si>
+    <t>"have"</t>
+  </si>
+  <si>
+    <t>"important"</t>
+  </si>
+  <si>
+    <t>"until"</t>
+  </si>
+  <si>
+    <t>"your"</t>
+  </si>
+  <si>
+    <t>"on"</t>
+  </si>
+  <si>
+    <t>"Log"</t>
+  </si>
+  <si>
+    <t>"beach"</t>
+  </si>
+  <si>
+    <t>"by"</t>
+  </si>
+  <si>
+    <t>"family"</t>
+  </si>
+  <si>
+    <t>"me"</t>
+  </si>
+  <si>
+    <t>"sat"</t>
+  </si>
+  <si>
+    <t>"tree"</t>
+  </si>
+  <si>
+    <t>"hog"</t>
+  </si>
+  <si>
+    <t>"shouted"</t>
+  </si>
+  <si>
+    <t>"then"</t>
+  </si>
+  <si>
+    <t>"There's"</t>
+  </si>
+  <si>
+    <t>"can"</t>
+  </si>
+  <si>
+    <t>"how"</t>
+  </si>
+  <si>
+    <t>"big"</t>
+  </si>
+  <si>
+    <t>"flea"</t>
+  </si>
+  <si>
+    <t>"frightening</t>
+  </si>
+  <si>
+    <t>"He"</t>
+  </si>
+  <si>
+    <t>"must"</t>
+  </si>
+  <si>
+    <t>"saving"</t>
+  </si>
+  <si>
+    <t>"that"</t>
+  </si>
+  <si>
+    <t>"Now"</t>
+  </si>
+  <si>
+    <t>"why"</t>
+  </si>
+  <si>
+    <t>"would"</t>
+  </si>
+  <si>
+    <t>"branch"</t>
+  </si>
+  <si>
+    <t>"Especially"</t>
+  </si>
+  <si>
+    <t>"water"</t>
+  </si>
+  <si>
+    <t>"believe"</t>
+  </si>
+  <si>
+    <t>"couldn't"</t>
+  </si>
+  <si>
+    <t>"happen"</t>
+  </si>
+  <si>
+    <t>"next"</t>
+  </si>
+  <si>
+    <t>"saw"</t>
+  </si>
+  <si>
+    <t>"what"</t>
+  </si>
+  <si>
+    <t>"perplexed"</t>
+  </si>
+  <si>
+    <t>"boat"</t>
+  </si>
+  <si>
+    <t>"came"</t>
+  </si>
+  <si>
+    <t>"pulled"</t>
+  </si>
+  <si>
+    <t>"rope"</t>
+  </si>
+  <si>
+    <t>"up"</t>
+  </si>
+  <si>
+    <t>"bet"</t>
+  </si>
+  <si>
+    <t>"can't"</t>
+  </si>
+  <si>
+    <t>"guess"</t>
+  </si>
+  <si>
+    <t>"happened"</t>
+  </si>
+  <si>
+    <t>"I'll"</t>
+  </si>
+  <si>
+    <t>"you"</t>
+  </si>
+  <si>
+    <t>"dog's"</t>
+  </si>
+  <si>
+    <t>"from"</t>
+  </si>
+  <si>
+    <t>"ran"</t>
+  </si>
+  <si>
+    <t>"toe"</t>
+  </si>
+  <si>
+    <t>"began"</t>
+  </si>
+  <si>
+    <t>"into"</t>
+  </si>
+  <si>
+    <t>"row"</t>
+  </si>
+  <si>
+    <t>"Once"</t>
+  </si>
+  <si>
+    <t>"sand"</t>
+  </si>
+  <si>
+    <t>"shore"</t>
+  </si>
+  <si>
+    <t>"through"</t>
+  </si>
+  <si>
+    <t>"hand"</t>
+  </si>
+  <si>
+    <t>"left"</t>
+  </si>
+  <si>
+    <t>"Over"</t>
+  </si>
+  <si>
+    <t>"Right"</t>
+  </si>
+  <si>
+    <t>"that's"</t>
+  </si>
+  <si>
+    <t>"went"</t>
+  </si>
+  <si>
+    <t>"found"</t>
+  </si>
+  <si>
+    <t>"home"</t>
+  </si>
+  <si>
+    <t>"an"</t>
+  </si>
+  <si>
+    <t>"new"</t>
+  </si>
+  <si>
+    <t>"scent"</t>
+  </si>
+  <si>
+    <t>"unpleasant"</t>
+  </si>
+  <si>
+    <t>"with"</t>
+  </si>
+  <si>
+    <t>"as"</t>
+  </si>
+  <si>
+    <t>"for"</t>
+  </si>
+  <si>
+    <t>"he's"</t>
+  </si>
+  <si>
+    <t>"riding"</t>
+  </si>
+  <si>
+    <t>"still"</t>
+  </si>
+  <si>
+    <t>"Ouch"</t>
+  </si>
+  <si>
+    <t>"think"</t>
+  </si>
+  <si>
+    <t>"cão"</t>
+  </si>
+  <si>
+    <t>"serviço"</t>
+  </si>
+  <si>
+    <t>"the"</t>
+  </si>
+  <si>
+    <t>"um"</t>
+  </si>
+  <si>
+    <t>"sou"</t>
+  </si>
+  <si>
+    <t>"e"</t>
+  </si>
+  <si>
+    <t>"oi"</t>
+  </si>
+  <si>
+    <t>"eu"</t>
+  </si>
+  <si>
+    <t>"para"</t>
+  </si>
+  <si>
+    <t>"fiquei"</t>
+  </si>
+  <si>
+    <t>"pouco"</t>
+  </si>
+  <si>
+    <t>"mais velha"</t>
+  </si>
+  <si>
+    <t>"escola"</t>
+  </si>
+  <si>
+    <t>"mandada"</t>
+  </si>
+  <si>
+    <t>"fui"</t>
+  </si>
+  <si>
+    <t>"quando"</t>
+  </si>
+  <si>
+    <t>"fazer"</t>
+  </si>
+  <si>
+    <t>"minhas"</t>
+  </si>
+  <si>
+    <t>"gosto"</t>
+  </si>
+  <si>
+    <t>"todos"</t>
+  </si>
+  <si>
+    <t>"mas"</t>
+  </si>
+  <si>
+    <t>"talvez"</t>
+  </si>
+  <si>
+    <t>"maioria"</t>
+  </si>
+  <si>
+    <t>"não"</t>
+  </si>
+  <si>
+    <t>"deles"</t>
+  </si>
+  <si>
+    <t>"Bem"</t>
+  </si>
+  <si>
+    <t>"muitos"</t>
+  </si>
+  <si>
+    <t>"alguns"</t>
+  </si>
+  <si>
+    <t>"Ok"</t>
+  </si>
+  <si>
+    <t>"nenhum"</t>
+  </si>
+  <si>
+    <t>"enganando"</t>
+  </si>
+  <si>
+    <t>"Apenas"</t>
+  </si>
+  <si>
+    <t>"realmente"</t>
+  </si>
+  <si>
+    <t>"entediado"</t>
+  </si>
+  <si>
+    <t>"mesmo"</t>
+  </si>
+  <si>
+    <t>"que"</t>
+  </si>
+  <si>
+    <t>"fico"</t>
+  </si>
+  <si>
+    <t>"então"</t>
+  </si>
+  <si>
+    <t>"algumas"</t>
+  </si>
+  <si>
+    <t>"Às vezes"</t>
+  </si>
+  <si>
+    <t>"sejam"</t>
+  </si>
+  <si>
+    <t>"pertence"</t>
+  </si>
+  <si>
+    <t>"cômoda"</t>
+  </si>
+  <si>
+    <t>"minha"</t>
+  </si>
+  <si>
+    <t>"onde"</t>
+  </si>
+  <si>
+    <t>"seja"</t>
+  </si>
+  <si>
+    <t>"feitas"</t>
+  </si>
+  <si>
+    <t>"divirta-se"</t>
+  </si>
+  <si>
+    <t>"importante"</t>
+  </si>
+  <si>
+    <t>"até que"</t>
+  </si>
+  <si>
+    <t>"suas"</t>
+  </si>
+  <si>
+    <t>"praia"</t>
+  </si>
+  <si>
+    <t>"perto"</t>
+  </si>
+  <si>
+    <t>"família"</t>
+  </si>
+  <si>
+    <t>"sentei"</t>
+  </si>
+  <si>
+    <t>"árvore"</t>
+  </si>
+  <si>
+    <t>"porco"</t>
+  </si>
+  <si>
+    <t>"gritou"</t>
+  </si>
+  <si>
+    <t>"há"</t>
+  </si>
+  <si>
+    <t>"é que"</t>
+  </si>
+  <si>
+    <t>"como"</t>
+  </si>
+  <si>
+    <t>"grande"</t>
+  </si>
+  <si>
+    <t>"assustadora"</t>
+  </si>
+  <si>
+    <t>"Ele"</t>
+  </si>
+  <si>
+    <t>"deve"</t>
+  </si>
+  <si>
+    <t>"salvar"</t>
+  </si>
+  <si>
+    <t>"aquela"</t>
+  </si>
+  <si>
+    <t>"Agora"</t>
+  </si>
+  <si>
+    <t>"por"</t>
+  </si>
+  <si>
+    <t>"galho"</t>
+  </si>
+  <si>
+    <t>"Especialmente"</t>
+  </si>
+  <si>
+    <t>"água"</t>
+  </si>
+  <si>
+    <t>"acreditar"</t>
+  </si>
+  <si>
+    <t>"não podia"</t>
+  </si>
+  <si>
+    <t>"acontecer"</t>
+  </si>
+  <si>
+    <t>"a seguir"</t>
+  </si>
+  <si>
+    <t>"vi"</t>
+  </si>
+  <si>
+    <t>"no que"</t>
+  </si>
+  <si>
+    <t>"perplexo"</t>
+  </si>
+  <si>
+    <t>"ficou"</t>
+  </si>
+  <si>
+    <t>"barco"</t>
+  </si>
+  <si>
+    <t>"subiu"</t>
+  </si>
+  <si>
+    <t>"puxou"</t>
+  </si>
+  <si>
+    <t>"corda"</t>
+  </si>
+  <si>
+    <t>"aposto"</t>
+  </si>
+  <si>
+    <t>"não pode"</t>
+  </si>
+  <si>
+    <t>"adivinhar"</t>
+  </si>
+  <si>
+    <t>"aconteceu"</t>
+  </si>
+  <si>
+    <t>"Eu"</t>
+  </si>
+  <si>
+    <t>"você"</t>
+  </si>
+  <si>
+    <t>"fugiu"</t>
+  </si>
+  <si>
+    <t>"começaram"</t>
+  </si>
+  <si>
+    <t>"entraram"</t>
+  </si>
+  <si>
+    <t>"remar"</t>
+  </si>
+  <si>
+    <t>"Eles"</t>
+  </si>
+  <si>
+    <t>"Uma vez"</t>
+  </si>
+  <si>
+    <t>"areia"</t>
+  </si>
+  <si>
+    <t>"costa"</t>
+  </si>
+  <si>
+    <t>"pela"</t>
+  </si>
+  <si>
+    <t>"mão"</t>
+  </si>
+  <si>
+    <t>"esquerda"</t>
+  </si>
+  <si>
+    <t>"Sobre"</t>
+  </si>
+  <si>
+    <t>"Direito"</t>
+  </si>
+  <si>
+    <t>"isso é"</t>
+  </si>
+  <si>
+    <t>"foram"</t>
+  </si>
+  <si>
+    <t>"encontraram"</t>
+  </si>
+  <si>
+    <t>"casa"</t>
+  </si>
+  <si>
+    <t>"nova"</t>
+  </si>
+  <si>
+    <t>"cheiro"</t>
+  </si>
+  <si>
+    <t>"desagradável"</t>
+  </si>
+  <si>
+    <t>"com"</t>
+  </si>
+  <si>
+    <t>"Quanto"</t>
+  </si>
+  <si>
+    <t>"ao"</t>
+  </si>
+  <si>
+    <t>"ele"</t>
+  </si>
+  <si>
+    <t>"montando"</t>
+  </si>
+  <si>
+    <t>"ainda"</t>
+  </si>
+  <si>
+    <t>"esse"</t>
+  </si>
+  <si>
+    <t>"ai"</t>
+  </si>
+  <si>
+    <t>"acho"</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCE301-2CC1-40FA-920E-00B3C30E61DE}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2239,16 +3004,1143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147A4767-0A1C-436F-99E7-A653733DE7CC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>260</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>264</v>
+      </c>
+      <c r="B65" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>270</v>
+      </c>
+      <c r="B71" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>272</v>
+      </c>
+      <c r="B73" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>273</v>
+      </c>
+      <c r="B74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>274</v>
+      </c>
+      <c r="B75" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>275</v>
+      </c>
+      <c r="B76" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>276</v>
+      </c>
+      <c r="B77" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>277</v>
+      </c>
+      <c r="B78" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>279</v>
+      </c>
+      <c r="B80" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>280</v>
+      </c>
+      <c r="B81" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>282</v>
+      </c>
+      <c r="B83" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>283</v>
+      </c>
+      <c r="B84" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>284</v>
+      </c>
+      <c r="B85" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>285</v>
+      </c>
+      <c r="B86" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>286</v>
+      </c>
+      <c r="B87" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>288</v>
+      </c>
+      <c r="B89" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>289</v>
+      </c>
+      <c r="B90" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B91" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>295</v>
+      </c>
+      <c r="B97" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>296</v>
+      </c>
+      <c r="B98" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>297</v>
+      </c>
+      <c r="B99" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>299</v>
+      </c>
+      <c r="B101" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>301</v>
+      </c>
+      <c r="B103" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>303</v>
+      </c>
+      <c r="B105" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>304</v>
+      </c>
+      <c r="B106" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>305</v>
+      </c>
+      <c r="B107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>306</v>
+      </c>
+      <c r="B108" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>307</v>
+      </c>
+      <c r="B109" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>309</v>
+      </c>
+      <c r="B112" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>310</v>
+      </c>
+      <c r="B113" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>246</v>
+      </c>
+      <c r="B114" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>311</v>
+      </c>
+      <c r="B115" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>312</v>
+      </c>
+      <c r="B116" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>314</v>
+      </c>
+      <c r="B118" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>315</v>
+      </c>
+      <c r="B119" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>316</v>
+      </c>
+      <c r="B120" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>317</v>
+      </c>
+      <c r="B121" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>318</v>
+      </c>
+      <c r="B122" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>319</v>
+      </c>
+      <c r="B123" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>320</v>
+      </c>
+      <c r="B124" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>321</v>
+      </c>
+      <c r="B126" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>322</v>
+      </c>
+      <c r="B127" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>323</v>
+      </c>
+      <c r="B128" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>324</v>
+      </c>
+      <c r="B129" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>325</v>
+      </c>
+      <c r="B130" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>326</v>
+      </c>
+      <c r="B131" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>327</v>
+      </c>
+      <c r="B132" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>328</v>
+      </c>
+      <c r="B133" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>329</v>
+      </c>
+      <c r="B134" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>330</v>
+      </c>
+      <c r="B135" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>331</v>
+      </c>
+      <c r="B136" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>332</v>
+      </c>
+      <c r="B137" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>279</v>
+      </c>
+      <c r="B138" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>333</v>
+      </c>
+      <c r="B139" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>334</v>
+      </c>
+      <c r="B140" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1365b8fb67532b17/Área de Trabalho/HandSignLanguage/Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoc\OneDrive\Área de Trabalho\HandSignLanguage\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="13_ncr:1_{67D1DA90-78C9-496F-A326-D5CDF4DF7CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC7363B-6599-4D4A-8BC7-C2C9E46ECC39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F53C2D-CA48-4520-81DC-FE96808BD71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="453">
   <si>
     <t>Livro</t>
   </si>
@@ -1303,9 +1303,6 @@
   </si>
   <si>
     <t>"perplexo"</t>
-  </si>
-  <si>
-    <t>"ficou"</t>
   </si>
   <si>
     <t>"barco"</t>
@@ -3004,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147A4767-0A1C-436F-99E7-A653733DE7CC}">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3656,7 +3653,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>280</v>
       </c>
@@ -3664,7 +3661,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>281</v>
       </c>
@@ -3672,7 +3669,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>282</v>
       </c>
@@ -3680,7 +3677,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>283</v>
       </c>
@@ -3688,7 +3685,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>284</v>
       </c>
@@ -3696,7 +3693,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>285</v>
       </c>
@@ -3704,7 +3701,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>286</v>
       </c>
@@ -3712,7 +3709,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>287</v>
       </c>
@@ -3720,7 +3717,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>288</v>
       </c>
@@ -3728,7 +3725,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>289</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>290</v>
       </c>
@@ -3744,7 +3741,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>291</v>
       </c>
@@ -3752,7 +3749,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>292</v>
       </c>
@@ -3760,33 +3757,35 @@
         <v>413</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="B94" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B95" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B97" t="s">
         <v>417</v>
@@ -3794,23 +3793,23 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B98" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B99" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
         <v>419</v>
@@ -3818,7 +3817,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B101" t="s">
         <v>420</v>
@@ -3826,7 +3825,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s">
         <v>421</v>
@@ -3834,7 +3833,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B103" t="s">
         <v>422</v>
@@ -3842,7 +3841,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B104" t="s">
         <v>423</v>
@@ -3850,15 +3849,15 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B105" t="s">
-        <v>424</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B106" t="s">
         <v>79</v>
@@ -3866,47 +3865,47 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B108" t="s">
-        <v>425</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B109" t="s">
-        <v>79</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="B110" t="s">
-        <v>426</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>426</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B112" t="s">
         <v>427</v>
@@ -3914,7 +3913,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="B113" t="s">
         <v>428</v>
@@ -3922,7 +3921,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="B114" t="s">
         <v>429</v>
@@ -3930,7 +3929,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B115" t="s">
         <v>430</v>
@@ -3938,7 +3937,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B116" t="s">
         <v>431</v>
@@ -3946,7 +3945,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B117" t="s">
         <v>432</v>
@@ -3954,7 +3953,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B118" t="s">
         <v>433</v>
@@ -3962,7 +3961,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B119" t="s">
         <v>434</v>
@@ -3970,7 +3969,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B120" t="s">
         <v>435</v>
@@ -3978,7 +3977,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B121" t="s">
         <v>436</v>
@@ -3986,7 +3985,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B122" t="s">
         <v>437</v>
@@ -3994,7 +3993,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B123" t="s">
         <v>438</v>
@@ -4002,23 +4001,23 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="B124" t="s">
-        <v>439</v>
+        <v>379</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
       <c r="B125" t="s">
-        <v>379</v>
+        <v>439</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B126" t="s">
         <v>440</v>
@@ -4026,117 +4025,113 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B127" t="s">
-        <v>441</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B128" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B129" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B130" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B131" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B132" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B133" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B134" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B135" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B136" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="B137" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="B138" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B139" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>334</v>
-      </c>
-      <c r="B140" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B141" s="2"/>
     </row>
   </sheetData>

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoc\OneDrive\Área de Trabalho\HandSignLanguage\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F53C2D-CA48-4520-81DC-FE96808BD71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8E60AD-83F5-4438-8D57-38B473D1CACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="451">
   <si>
     <t>Livro</t>
   </si>
@@ -1347,9 +1347,6 @@
     <t>"remar"</t>
   </si>
   <si>
-    <t>"Eles"</t>
-  </si>
-  <si>
     <t>"Uma vez"</t>
   </si>
   <si>
@@ -1411,9 +1408,6 @@
   </si>
   <si>
     <t>"ainda"</t>
-  </si>
-  <si>
-    <t>"esse"</t>
   </si>
   <si>
     <t>"ai"</t>
@@ -3003,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147A4767-0A1C-436F-99E7-A653733DE7CC}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3889,244 +3883,224 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B111" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B112" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="B113" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B114" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B115" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B116" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B117" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B118" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B119" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B120" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B121" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B122" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B123" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="B124" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B125" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B126" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B127" t="s">
-        <v>338</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B128" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B129" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B130" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B131" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B132" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B133" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B134" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B135" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>332</v>
-      </c>
-      <c r="B136" t="s">
-        <v>449</v>
-      </c>
+      <c r="A136" s="2"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>279</v>
-      </c>
-      <c r="B137" t="s">
-        <v>450</v>
-      </c>
+      <c r="A137" s="2"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>333</v>
-      </c>
-      <c r="B138" t="s">
-        <v>451</v>
-      </c>
+      <c r="A138" s="2"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>334</v>
-      </c>
-      <c r="B139" t="s">
-        <v>452</v>
-      </c>
+      <c r="A139" s="2"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
